--- a/Samples_Jamestown_Paper.xlsx
+++ b/Samples_Jamestown_Paper.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$1047</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6279" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6297" uniqueCount="2061">
   <si>
     <t xml:space="preserve">Name in fasta file</t>
   </si>
@@ -6185,6 +6185,27 @@
   </si>
   <si>
     <t xml:space="preserve">OR129838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR73052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR27715984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR75943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR27715983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR135139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR27715982</t>
   </si>
 </sst>
 </file>
@@ -6323,10 +6344,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1047"/>
+  <dimension ref="A1:G1050"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1039" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1046" activeCellId="0" sqref="F1046"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1039" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1056" activeCellId="0" sqref="F1056"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.37890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27284,10 +27305,70 @@
         <v>2053</v>
       </c>
     </row>
+    <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F1048" s="1" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F1049" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F1050" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G1">
-      <sortCondition ref="A2:A1" customList=""/>
+  <autoFilter ref="A1:G1047">
+    <sortState ref="A2:G1047">
+      <sortCondition ref="A2:A1047" customList=""/>
     </sortState>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
